--- a/Documentation/Servo_Test_Case.xlsx
+++ b/Documentation/Servo_Test_Case.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABEACE02ECC173DA4B585BDE58A7" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{446CE036-B58A-49CE-927A-FCDEA840E2CF}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABEACE02ECC173DA4B585BDE58A7" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{53F5E8D2-2EC0-40E0-A7F2-ECE6A1DBE518}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="C5:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="11" spans="3:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
